--- a/App and service store_Long List.xlsx
+++ b/App and service store_Long List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sem 5\AI_Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFCDFA7-EA18-416D-AE78-076DA5D0773F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19839EDF-1845-42E7-A5E5-5796FA6CE900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="App and service store_Long List" sheetId="8" r:id="rId1"/>
@@ -12989,13 +12989,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70016A7B-37C0-4570-B2ED-E45BA4B70D9D}" name="Tabelle1" displayName="Tabelle1" ref="B1:AB448" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
-  <autoFilter ref="B1:AB448" xr:uid="{70016A7B-37C0-4570-B2ED-E45BA4B70D9D}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Chaitali"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:AB448" xr:uid="{70016A7B-37C0-4570-B2ED-E45BA4B70D9D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:AB438">
     <sortCondition ref="E1:E439"/>
   </sortState>
@@ -13297,9 +13291,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E64B25-6C74-420D-BEAC-A0BB0A508B29}">
   <dimension ref="A1:GI448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N443" sqref="N443"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N61" sqref="N61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13418,7 +13412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="2:28" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:28" ht="63.75" x14ac:dyDescent="0.2">
       <c r="C2" s="1">
         <v>412</v>
       </c>
@@ -13480,7 +13474,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="3" spans="2:28" s="94" customFormat="1" ht="135.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:28" s="94" customFormat="1" ht="135.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="54">
         <v>90</v>
       </c>
@@ -13539,7 +13533,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="4" spans="2:28" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:28" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="171" t="s">
         <v>1097</v>
       </c>
@@ -13584,7 +13578,7 @@
       </c>
       <c r="AB4" s="123"/>
     </row>
-    <row r="5" spans="2:28" s="94" customFormat="1" ht="79.150000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:28" s="94" customFormat="1" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="241" t="s">
         <v>1097</v>
       </c>
@@ -13629,7 +13623,7 @@
       </c>
       <c r="AB5" s="123"/>
     </row>
-    <row r="6" spans="2:28" ht="264" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:28" ht="264" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="1">
         <v>361</v>
       </c>
@@ -13690,7 +13684,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="7" spans="2:28" ht="106.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:28" ht="106.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="124">
         <v>75</v>
       </c>
@@ -13749,7 +13743,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="8" spans="2:28" s="94" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:28" s="94" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B8" s="93" t="s">
         <v>1097</v>
       </c>
@@ -13802,7 +13796,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="9" spans="2:28" s="94" customFormat="1" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:28" s="94" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="114"/>
       <c r="C9" s="114">
         <v>388</v>
@@ -13863,7 +13857,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="10" spans="2:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:28" ht="51" x14ac:dyDescent="0.2">
       <c r="B10" s="124">
         <v>63</v>
       </c>
@@ -13922,7 +13916,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="11" spans="2:28" ht="151.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:28" ht="151.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="144" t="s">
         <v>1097</v>
       </c>
@@ -13969,7 +13963,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="12" spans="2:28" ht="151.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:28" ht="151.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="52"/>
       <c r="C12" s="1">
         <v>398</v>
@@ -14028,7 +14022,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="13" spans="2:28" ht="151.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:28" ht="151.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="52"/>
       <c r="C13" s="1" t="s">
         <v>2101</v>
@@ -14070,7 +14064,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="14" spans="2:28" ht="151.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:28" ht="151.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="52"/>
       <c r="C14" s="1" t="s">
         <v>2102</v>
@@ -14115,7 +14109,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="15" spans="2:28" ht="151.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:28" ht="151.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="97">
         <v>53</v>
       </c>
@@ -14186,7 +14180,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="16" spans="2:28" ht="151.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:28" ht="151.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="97">
         <v>174</v>
       </c>
@@ -14239,7 +14233,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="17" spans="2:28" ht="151.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:28" ht="151.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="243"/>
       <c r="C17" s="114">
         <v>389</v>
@@ -14300,7 +14294,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="18" spans="2:28" s="94" customFormat="1" ht="118.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:28" s="94" customFormat="1" ht="118.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="54">
         <v>116</v>
       </c>
@@ -14357,7 +14351,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="19" spans="2:28" ht="132" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:28" ht="132" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="51">
         <v>102</v>
       </c>
@@ -14416,7 +14410,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="20" spans="2:28" s="94" customFormat="1" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:28" s="94" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B20" s="144" t="s">
         <v>1097</v>
       </c>
@@ -14463,7 +14457,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="21" spans="2:28" ht="153" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:28" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="115">
         <v>113</v>
       </c>
@@ -14524,7 +14518,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="22" spans="2:28" ht="183.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:28" ht="183.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="171" t="s">
         <v>1097</v>
       </c>
@@ -14569,7 +14563,7 @@
       </c>
       <c r="AB22" s="123"/>
     </row>
-    <row r="23" spans="2:28" ht="183.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:28" ht="183.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="93" t="s">
         <v>1097</v>
       </c>
@@ -14614,7 +14608,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="24" spans="2:28" ht="183.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:28" ht="183.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="54">
         <v>57</v>
       </c>
@@ -14673,7 +14667,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="25" spans="2:28" ht="183.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:28" ht="183.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="98" t="s">
         <v>1097</v>
       </c>
@@ -14722,7 +14716,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="26" spans="2:28" ht="183.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:28" ht="183.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="115">
         <v>119</v>
       </c>
@@ -14783,7 +14777,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="27" spans="2:28" ht="183.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:28" ht="183.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="93">
         <v>119</v>
       </c>
@@ -14836,7 +14830,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="28" spans="2:28" ht="183.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:28" ht="183.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="98">
         <v>119</v>
       </c>
@@ -14889,7 +14883,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="29" spans="2:28" ht="279" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:28" ht="279" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="93">
         <v>119</v>
       </c>
@@ -14940,7 +14934,7 @@
       </c>
       <c r="AB29" s="212"/>
     </row>
-    <row r="30" spans="2:28" ht="321.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:28" ht="321.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="93">
         <v>119</v>
       </c>
@@ -14987,7 +14981,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="31" spans="2:28" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:28" ht="102" x14ac:dyDescent="0.2">
       <c r="B31" s="98">
         <v>119</v>
       </c>
@@ -15038,7 +15032,7 @@
       </c>
       <c r="AB31" s="212"/>
     </row>
-    <row r="32" spans="2:28" ht="132" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:28" ht="132" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="93" t="s">
         <v>1097</v>
       </c>
@@ -15089,7 +15083,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="33" spans="2:187" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:187" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="98" t="s">
         <v>1097</v>
       </c>
@@ -15136,7 +15130,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="34" spans="2:187" ht="92.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:187" ht="92.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="93" t="s">
         <v>1097</v>
       </c>
@@ -15182,7 +15176,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="35" spans="2:187" ht="92.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:187" ht="92.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="54"/>
       <c r="C35" s="1" t="s">
         <v>2674</v>
@@ -15229,7 +15223,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="36" spans="2:187" ht="66.400000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:187" ht="66.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="54">
         <v>173</v>
       </c>
@@ -15302,7 +15296,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="37" spans="2:187" ht="105.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:187" ht="105.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="51">
         <v>26</v>
       </c>
@@ -15365,7 +15359,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="38" spans="2:187" s="94" customFormat="1" ht="145.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:187" s="94" customFormat="1" ht="145.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="115">
         <v>88</v>
       </c>
@@ -15422,7 +15416,7 @@
       </c>
       <c r="AB38" s="123"/>
     </row>
-    <row r="39" spans="2:187" ht="184.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:187" ht="184.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="144" t="s">
         <v>1097</v>
       </c>
@@ -15469,7 +15463,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="40" spans="2:187" ht="79.150000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:187" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="171" t="s">
         <v>1097</v>
       </c>
@@ -15516,7 +15510,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="41" spans="2:187" ht="92.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:187" ht="92.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="54">
         <v>64</v>
       </c>
@@ -15579,7 +15573,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="42" spans="2:187" ht="118.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:187" ht="118.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="115">
         <v>139</v>
       </c>
@@ -15654,7 +15648,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="43" spans="2:187" ht="118.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:187" ht="118.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="171" t="s">
         <v>1097</v>
       </c>
@@ -15701,7 +15695,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="44" spans="2:187" ht="118.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:187" ht="118.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="54">
         <v>147</v>
       </c>
@@ -15776,7 +15770,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="45" spans="2:187" ht="105.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:187" ht="105.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="114"/>
       <c r="C45" s="114">
         <v>376</v>
@@ -15835,7 +15829,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="46" spans="2:187" ht="105.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:187" ht="105.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="124">
         <v>91</v>
       </c>
@@ -15894,7 +15888,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="47" spans="2:187" ht="145.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:187" ht="145.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="93" t="s">
         <v>1097</v>
       </c>
@@ -15943,7 +15937,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="48" spans="2:187" ht="118.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:187" ht="118.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="93" t="s">
         <v>1097</v>
       </c>
@@ -16151,7 +16145,7 @@
       <c r="GD48" s="578"/>
       <c r="GE48" s="578"/>
     </row>
-    <row r="49" spans="2:191" ht="198" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:191" ht="198" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="124">
         <v>23</v>
       </c>
@@ -16366,7 +16360,7 @@
       <c r="GD49" s="578"/>
       <c r="GE49" s="578"/>
     </row>
-    <row r="50" spans="2:191" ht="105.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:191" ht="105.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="54">
         <v>144</v>
       </c>
@@ -16600,7 +16594,7 @@
       <c r="GD50" s="578"/>
       <c r="GE50" s="578"/>
     </row>
-    <row r="51" spans="2:191" ht="132" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:191" ht="132" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="114"/>
       <c r="C51" s="114">
         <v>377</v>
@@ -16822,7 +16816,7 @@
       <c r="GD51" s="578"/>
       <c r="GE51" s="578"/>
     </row>
-    <row r="52" spans="2:191" ht="92.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:191" ht="92.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="62"/>
       <c r="C52" s="1">
         <v>407</v>
@@ -17043,7 +17037,7 @@
       <c r="GD52" s="578"/>
       <c r="GE52" s="578"/>
     </row>
-    <row r="53" spans="2:191" ht="114.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:191" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B53" s="115">
         <v>159</v>
       </c>
@@ -17277,7 +17271,7 @@
       <c r="GD53" s="578"/>
       <c r="GE53" s="578"/>
     </row>
-    <row r="54" spans="2:191" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:191" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="144" t="s">
         <v>1097</v>
       </c>
@@ -17483,7 +17477,7 @@
       <c r="GD54" s="578"/>
       <c r="GE54" s="578"/>
     </row>
-    <row r="55" spans="2:191" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:191" ht="51" x14ac:dyDescent="0.2">
       <c r="B55" s="51">
         <v>118</v>
       </c>
@@ -17700,7 +17694,7 @@
       <c r="GD55" s="578"/>
       <c r="GE55" s="578"/>
     </row>
-    <row r="56" spans="2:191" ht="216.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:191" ht="216.75" x14ac:dyDescent="0.2">
       <c r="C56" s="1">
         <v>378</v>
       </c>
@@ -17923,7 +17917,7 @@
       <c r="GD56" s="578"/>
       <c r="GE56" s="578"/>
     </row>
-    <row r="57" spans="2:191" ht="79.150000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:191" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="114"/>
       <c r="C57" s="114">
         <v>386</v>
@@ -18145,7 +18139,7 @@
       <c r="GD57" s="578"/>
       <c r="GE57" s="578"/>
     </row>
-    <row r="58" spans="2:191" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:191" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="1">
         <v>411</v>
       </c>
@@ -18366,7 +18360,7 @@
       <c r="GD58" s="578"/>
       <c r="GE58" s="578"/>
     </row>
-    <row r="59" spans="2:191" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:191" ht="102" x14ac:dyDescent="0.2">
       <c r="B59" s="115">
         <v>154</v>
       </c>
@@ -18600,7 +18594,7 @@
       <c r="GD59" s="578"/>
       <c r="GE59" s="578"/>
     </row>
-    <row r="60" spans="2:191" ht="64.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:191" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="87"/>
       <c r="C60" s="87">
         <v>323</v>
@@ -18834,7 +18828,7 @@
       <c r="GD60" s="578"/>
       <c r="GE60" s="578"/>
     </row>
-    <row r="61" spans="2:191" ht="118.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:191" ht="118.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="124">
         <v>32</v>
       </c>
@@ -18898,7 +18892,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="62" spans="2:191" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:191" ht="102" x14ac:dyDescent="0.25">
       <c r="B62" s="468">
         <v>24</v>
       </c>
@@ -19121,7 +19115,7 @@
       <c r="GD62" s="578"/>
       <c r="GE62" s="578"/>
     </row>
-    <row r="63" spans="2:191" ht="211.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:191" ht="211.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="54">
         <v>3</v>
       </c>
@@ -19342,7 +19336,7 @@
       <c r="GD63" s="578"/>
       <c r="GE63" s="578"/>
     </row>
-    <row r="64" spans="2:191" s="6" customFormat="1" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:191" s="6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="51">
         <v>4</v>
       </c>
@@ -19559,7 +19553,7 @@
       <c r="GH64" s="1"/>
       <c r="GI64" s="1"/>
     </row>
-    <row r="65" spans="2:191" s="6" customFormat="1" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:191" s="6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="1"/>
       <c r="C65" s="1">
         <v>417</v>
@@ -19783,7 +19777,7 @@
       <c r="GH65" s="1"/>
       <c r="GI65" s="1"/>
     </row>
-    <row r="66" spans="2:191" s="6" customFormat="1" ht="89.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:191" s="6" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
         <v>2119</v>
@@ -20004,7 +19998,7 @@
       <c r="GH66" s="1"/>
       <c r="GI66" s="1"/>
     </row>
-    <row r="67" spans="2:191" s="6" customFormat="1" ht="53.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:191" s="6" customFormat="1" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="124">
         <v>172</v>
       </c>
@@ -20210,7 +20204,7 @@
       <c r="GH67" s="1"/>
       <c r="GI67" s="1"/>
     </row>
-    <row r="68" spans="2:191" s="6" customFormat="1" ht="52.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:191" s="6" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="93" t="s">
         <v>1097</v>
       </c>
@@ -20420,7 +20414,7 @@
       <c r="GH68" s="1"/>
       <c r="GI68" s="1"/>
     </row>
-    <row r="69" spans="2:191" s="6" customFormat="1" ht="66.400000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:191" s="6" customFormat="1" ht="66.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="93" t="s">
         <v>1097</v>
       </c>
@@ -20632,7 +20626,7 @@
       <c r="GH69" s="1"/>
       <c r="GI69" s="1"/>
     </row>
-    <row r="70" spans="2:191" s="330" customFormat="1" ht="140.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:191" s="330" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="B70" s="116"/>
       <c r="C70" s="114">
         <v>420</v>
@@ -20856,7 +20850,7 @@
       <c r="GH70" s="94"/>
       <c r="GI70" s="94"/>
     </row>
-    <row r="71" spans="2:191" s="6" customFormat="1" ht="53.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:191" s="6" customFormat="1" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="54"/>
       <c r="C71" s="1" t="s">
         <v>1948</v>
@@ -21053,7 +21047,7 @@
       <c r="GH71" s="1"/>
       <c r="GI71" s="1"/>
     </row>
-    <row r="72" spans="2:191" s="6" customFormat="1" ht="53.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:191" s="6" customFormat="1" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="144" t="s">
         <v>1097</v>
       </c>
@@ -21263,7 +21257,7 @@
       <c r="GH72" s="1"/>
       <c r="GI72" s="1"/>
     </row>
-    <row r="73" spans="2:191" s="6" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:191" s="6" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="51">
         <v>97</v>
       </c>
@@ -21481,7 +21475,7 @@
       <c r="GH73" s="1"/>
       <c r="GI73" s="1"/>
     </row>
-    <row r="74" spans="2:191" s="6" customFormat="1" ht="229.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:191" s="6" customFormat="1" ht="229.5" x14ac:dyDescent="0.2">
       <c r="B74" s="115">
         <v>40</v>
       </c>
@@ -21702,7 +21696,7 @@
       <c r="GH74" s="1"/>
       <c r="GI74" s="1"/>
     </row>
-    <row r="75" spans="2:191" s="6" customFormat="1" ht="53.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:191" s="6" customFormat="1" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="115">
         <v>38</v>
       </c>
@@ -21927,7 +21921,7 @@
       <c r="GH75" s="1"/>
       <c r="GI75" s="1"/>
     </row>
-    <row r="76" spans="2:191" s="6" customFormat="1" ht="52.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:191" s="6" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="124">
         <v>181</v>
       </c>
@@ -22153,7 +22147,7 @@
       <c r="GH76" s="1"/>
       <c r="GI76" s="1"/>
     </row>
-    <row r="77" spans="2:191" s="6" customFormat="1" ht="64.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:191" s="6" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="114"/>
       <c r="C77" s="114">
         <v>347</v>
@@ -22381,7 +22375,7 @@
       <c r="GH77" s="1"/>
       <c r="GI77" s="1"/>
     </row>
-    <row r="78" spans="2:191" s="6" customFormat="1" ht="52.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:191" s="6" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="54">
         <v>39</v>
       </c>
@@ -22598,7 +22592,7 @@
       <c r="GH78" s="1"/>
       <c r="GI78" s="1"/>
     </row>
-    <row r="79" spans="2:191" s="6" customFormat="1" ht="39.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:191" s="6" customFormat="1" ht="39.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="98" t="s">
         <v>1097</v>
       </c>
@@ -22812,7 +22806,7 @@
       <c r="GH79" s="1"/>
       <c r="GI79" s="1"/>
     </row>
-    <row r="80" spans="2:191" s="6" customFormat="1" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:191" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B80" s="114"/>
       <c r="C80" s="114">
         <v>379</v>
@@ -23036,7 +23030,7 @@
       <c r="GH80" s="1"/>
       <c r="GI80" s="1"/>
     </row>
-    <row r="81" spans="2:191" s="6" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:191" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B81" s="93" t="s">
         <v>1097</v>
       </c>
@@ -23246,7 +23240,7 @@
       <c r="GH81" s="1"/>
       <c r="GI81" s="1"/>
     </row>
-    <row r="82" spans="2:191" s="6" customFormat="1" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:191" s="6" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="62"/>
       <c r="C82" s="1">
         <v>371</v>
@@ -23470,7 +23464,7 @@
       <c r="GH82" s="1"/>
       <c r="GI82" s="1"/>
     </row>
-    <row r="83" spans="2:191" s="6" customFormat="1" ht="53.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:191" s="6" customFormat="1" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="1"/>
       <c r="C83" s="1">
         <v>399</v>
@@ -23688,7 +23682,7 @@
       <c r="GH83" s="1"/>
       <c r="GI83" s="1"/>
     </row>
-    <row r="84" spans="2:191" s="6" customFormat="1" ht="53.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:191" s="6" customFormat="1" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="93" t="s">
         <v>1097</v>
       </c>
@@ -23900,7 +23894,7 @@
       <c r="GH84" s="1"/>
       <c r="GI84" s="1"/>
     </row>
-    <row r="85" spans="2:191" s="6" customFormat="1" ht="53.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:191" s="6" customFormat="1" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="171" t="s">
         <v>1097</v>
       </c>
@@ -24110,7 +24104,7 @@
       <c r="GH85" s="1"/>
       <c r="GI85" s="1"/>
     </row>
-    <row r="86" spans="2:191" s="6" customFormat="1" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:191" s="6" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="93" t="s">
         <v>1097</v>
       </c>
@@ -24324,7 +24318,7 @@
       <c r="GH86" s="1"/>
       <c r="GI86" s="1"/>
     </row>
-    <row r="87" spans="2:191" s="6" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:191" s="6" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="115">
         <v>106</v>
       </c>
@@ -24546,7 +24540,7 @@
       <c r="GH87" s="1"/>
       <c r="GI87" s="1"/>
     </row>
-    <row r="88" spans="2:191" s="6" customFormat="1" ht="242.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:191" s="6" customFormat="1" ht="242.25" x14ac:dyDescent="0.2">
       <c r="B88" s="51">
         <v>45</v>
       </c>
@@ -24767,7 +24761,7 @@
       <c r="GH88" s="1"/>
       <c r="GI88" s="1"/>
     </row>
-    <row r="89" spans="2:191" s="6" customFormat="1" ht="127.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:191" s="6" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="B89" s="114"/>
       <c r="C89" s="114">
         <v>317</v>
@@ -25005,7 +24999,7 @@
       <c r="GH89" s="1"/>
       <c r="GI89" s="1"/>
     </row>
-    <row r="90" spans="2:191" s="6" customFormat="1" ht="52.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:191" s="6" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="54">
         <v>148</v>
       </c>
@@ -25243,7 +25237,7 @@
       <c r="GH90" s="1"/>
       <c r="GI90" s="1"/>
     </row>
-    <row r="91" spans="2:191" s="6" customFormat="1" ht="53.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:191" s="6" customFormat="1" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="51">
         <v>121</v>
       </c>
@@ -25456,7 +25450,7 @@
       <c r="GH91" s="1"/>
       <c r="GI91" s="1"/>
     </row>
-    <row r="92" spans="2:191" s="6" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:191" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B92" s="93" t="s">
         <v>1097</v>
       </c>
@@ -25664,7 +25658,7 @@
       <c r="GH92" s="1"/>
       <c r="GI92" s="1"/>
     </row>
-    <row r="93" spans="2:191" s="6" customFormat="1" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:191" s="6" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="115">
         <v>96</v>
       </c>
@@ -25888,7 +25882,7 @@
       <c r="GH93" s="1"/>
       <c r="GI93" s="1"/>
     </row>
-    <row r="94" spans="2:191" s="6" customFormat="1" ht="52.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:191" s="6" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="93" t="s">
         <v>1097</v>
       </c>
@@ -26096,7 +26090,7 @@
       <c r="GH94" s="1"/>
       <c r="GI94" s="1"/>
     </row>
-    <row r="95" spans="2:191" s="6" customFormat="1" ht="52.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:191" s="6" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="171" t="s">
         <v>1097</v>
       </c>
@@ -26308,7 +26302,7 @@
       <c r="GH95" s="1"/>
       <c r="GI95" s="1"/>
     </row>
-    <row r="96" spans="2:191" s="6" customFormat="1" ht="52.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:191" s="6" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="115">
         <v>176</v>
       </c>
@@ -26518,7 +26512,7 @@
       <c r="GH96" s="1"/>
       <c r="GI96" s="1"/>
     </row>
-    <row r="97" spans="2:191" s="6" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:191" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B97" s="144" t="s">
         <v>1097</v>
       </c>
@@ -26726,7 +26720,7 @@
       <c r="GH97" s="1"/>
       <c r="GI97" s="1"/>
     </row>
-    <row r="98" spans="2:191" s="6" customFormat="1" ht="52.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:191" s="6" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="51">
         <v>95</v>
       </c>
@@ -26939,7 +26933,7 @@
       <c r="GH98" s="1"/>
       <c r="GI98" s="1"/>
     </row>
-    <row r="99" spans="2:191" s="6" customFormat="1" ht="89.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:191" s="6" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B99" s="54">
         <v>55</v>
       </c>
@@ -27160,7 +27154,7 @@
       <c r="GH99" s="1"/>
       <c r="GI99" s="1"/>
     </row>
-    <row r="100" spans="2:191" s="6" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:191" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B100" s="115">
         <v>135</v>
       </c>
@@ -27396,7 +27390,7 @@
       <c r="GH100" s="1"/>
       <c r="GI100" s="1"/>
     </row>
-    <row r="101" spans="2:191" s="6" customFormat="1" ht="53.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:191" s="6" customFormat="1" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="62"/>
       <c r="C101" s="1">
         <v>362</v>
@@ -27615,7 +27609,7 @@
       <c r="GH101" s="1"/>
       <c r="GI101" s="1"/>
     </row>
-    <row r="102" spans="2:191" s="6" customFormat="1" ht="53.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:191" s="6" customFormat="1" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="93" t="s">
         <v>1097</v>
       </c>
@@ -27827,7 +27821,7 @@
       <c r="GH102" s="1"/>
       <c r="GI102" s="1"/>
     </row>
-    <row r="103" spans="2:191" s="6" customFormat="1" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:191" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B103" s="93" t="s">
         <v>1097</v>
       </c>
@@ -28041,7 +28035,7 @@
       <c r="GH103" s="1"/>
       <c r="GI103" s="1"/>
     </row>
-    <row r="104" spans="2:191" s="6" customFormat="1" ht="53.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:191" s="6" customFormat="1" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="116"/>
       <c r="C104" s="114">
         <v>401</v>
@@ -28265,7 +28259,7 @@
       <c r="GH104" s="1"/>
       <c r="GI104" s="1"/>
     </row>
-    <row r="105" spans="2:191" s="6" customFormat="1" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:191" s="6" customFormat="1" ht="77.25" x14ac:dyDescent="0.25">
       <c r="B105" s="115">
         <v>137</v>
       </c>
@@ -28503,7 +28497,7 @@
       <c r="GH105" s="1"/>
       <c r="GI105" s="1"/>
     </row>
-    <row r="106" spans="2:191" s="6" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:191" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B106" s="1"/>
       <c r="C106" s="1">
         <v>395</v>
@@ -28716,7 +28710,7 @@
       <c r="GH106" s="1"/>
       <c r="GI106" s="1"/>
     </row>
-    <row r="107" spans="2:191" s="6" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:191" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B107" s="114"/>
       <c r="C107" s="114">
         <v>396</v>
@@ -28942,7 +28936,7 @@
       <c r="GH107" s="1"/>
       <c r="GI107" s="1"/>
     </row>
-    <row r="108" spans="2:191" s="6" customFormat="1" ht="79.900000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:191" s="6" customFormat="1" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="62"/>
       <c r="C108" s="1" t="s">
         <v>2139</v>
@@ -29139,7 +29133,7 @@
       <c r="GH108" s="1"/>
       <c r="GI108" s="1"/>
     </row>
-    <row r="109" spans="2:191" s="6" customFormat="1" ht="53.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:191" s="6" customFormat="1" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="242">
         <v>98</v>
       </c>
@@ -29361,7 +29355,7 @@
       <c r="GH109" s="1"/>
       <c r="GI109" s="1"/>
     </row>
-    <row r="110" spans="2:191" s="6" customFormat="1" ht="52.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:191" s="6" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="54">
         <v>81</v>
       </c>
@@ -29577,7 +29571,7 @@
       <c r="GH110" s="1"/>
       <c r="GI110" s="1"/>
     </row>
-    <row r="111" spans="2:191" s="6" customFormat="1" ht="52.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:191" s="6" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="115">
         <v>70</v>
       </c>
@@ -29797,7 +29791,7 @@
       <c r="GH111" s="1"/>
       <c r="GI111" s="1"/>
     </row>
-    <row r="112" spans="2:191" s="6" customFormat="1" ht="52.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:191" s="6" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="93" t="s">
         <v>1097</v>
       </c>
@@ -30003,7 +29997,7 @@
       <c r="GH112" s="1"/>
       <c r="GI112" s="1"/>
     </row>
-    <row r="113" spans="2:191" s="6" customFormat="1" ht="52.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:191" s="6" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="114"/>
       <c r="C113" s="114">
         <v>319</v>
@@ -30241,7 +30235,7 @@
       <c r="GH113" s="1"/>
       <c r="GI113" s="1"/>
     </row>
-    <row r="114" spans="2:191" s="6" customFormat="1" ht="89.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:191" s="6" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B114" s="98" t="s">
         <v>1097</v>
       </c>
@@ -30453,7 +30447,7 @@
       <c r="GH114" s="1"/>
       <c r="GI114" s="1"/>
     </row>
-    <row r="115" spans="2:191" s="6" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:191" s="6" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B115" s="114"/>
       <c r="C115" s="114">
         <v>316</v>
@@ -30657,7 +30651,7 @@
       <c r="GH115" s="1"/>
       <c r="GI115" s="1"/>
     </row>
-    <row r="116" spans="2:191" s="6" customFormat="1" ht="53.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:191" s="6" customFormat="1" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="114"/>
       <c r="C116" s="114">
         <v>391</v>
@@ -30879,7 +30873,7 @@
       <c r="GH116" s="1"/>
       <c r="GI116" s="1"/>
     </row>
-    <row r="117" spans="2:191" s="6" customFormat="1" ht="53.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:191" s="6" customFormat="1" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="54">
         <v>150</v>
       </c>
@@ -31117,7 +31111,7 @@
       <c r="GH117" s="1"/>
       <c r="GI117" s="1"/>
     </row>
-    <row r="118" spans="2:191" s="6" customFormat="1" ht="52.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:191" s="6" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="54"/>
       <c r="C118" s="1">
         <v>87</v>
@@ -31315,7 +31309,7 @@
       <c r="GH118" s="1"/>
       <c r="GI118" s="1"/>
     </row>
-    <row r="119" spans="2:191" s="6" customFormat="1" ht="52.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:191" s="6" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="116"/>
       <c r="C119" s="114">
         <v>373</v>
@@ -31541,7 +31535,7 @@
       <c r="GH119" s="1"/>
       <c r="GI119" s="1"/>
     </row>
-    <row r="120" spans="2:191" s="6" customFormat="1" ht="52.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:191" s="6" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="54">
         <v>120</v>
       </c>
@@ -31752,7 +31746,7 @@
       <c r="GH120" s="1"/>
       <c r="GI120" s="1"/>
     </row>
-    <row r="121" spans="2:191" s="6" customFormat="1" ht="52.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:191" s="6" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="115">
         <v>160</v>
       </c>
@@ -31992,7 +31986,7 @@
       <c r="GH121" s="1"/>
       <c r="GI121" s="1"/>
     </row>
-    <row r="122" spans="2:191" s="6" customFormat="1" ht="52.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:191" s="6" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="51">
         <v>34</v>
       </c>
@@ -32211,7 +32205,7 @@
       <c r="GH122" s="1"/>
       <c r="GI122" s="1"/>
     </row>
-    <row r="123" spans="2:191" s="6" customFormat="1" ht="52.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:191" s="6" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="114"/>
       <c r="C123" s="114">
         <v>330</v>
@@ -32449,7 +32443,7 @@
       <c r="GH123" s="1"/>
       <c r="GI123" s="1"/>
     </row>
-    <row r="124" spans="2:191" s="6" customFormat="1" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:191" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B124" s="54">
         <v>164</v>
       </c>
@@ -32685,7 +32679,7 @@
       <c r="GH124" s="1"/>
       <c r="GI124" s="1"/>
     </row>
-    <row r="125" spans="2:191" s="6" customFormat="1" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:191" s="6" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="1"/>
       <c r="C125" s="1">
         <v>400</v>
@@ -32897,7 +32891,7 @@
       <c r="GH125" s="1"/>
       <c r="GI125" s="1"/>
     </row>
-    <row r="126" spans="2:191" s="6" customFormat="1" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:191" s="6" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="124">
         <v>108</v>
       </c>
@@ -33119,7 +33113,7 @@
       <c r="GH126" s="1"/>
       <c r="GI126" s="1"/>
     </row>
-    <row r="127" spans="2:191" s="6" customFormat="1" ht="52.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:191" s="6" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
       <c r="C127" s="1" t="s">
         <v>2157</v>
@@ -33318,7 +33312,7 @@
       <c r="GH127" s="1"/>
       <c r="GI127" s="1"/>
     </row>
-    <row r="128" spans="2:191" s="6" customFormat="1" ht="52.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:191" s="6" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="1"/>
       <c r="C128" s="1">
         <v>372</v>
@@ -33537,7 +33531,7 @@
       <c r="GH128" s="1"/>
       <c r="GI128" s="1"/>
     </row>
-    <row r="129" spans="2:191" s="6" customFormat="1" ht="52.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:191" s="6" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="98" t="s">
         <v>1097</v>
       </c>
@@ -33747,7 +33741,7 @@
       <c r="GH129" s="1"/>
       <c r="GI129" s="1"/>
     </row>
-    <row r="130" spans="2:191" s="6" customFormat="1" ht="52.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:191" s="6" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="93" t="s">
         <v>1097</v>
       </c>
@@ -33957,7 +33951,7 @@
       <c r="GH130" s="1"/>
       <c r="GI130" s="1"/>
     </row>
-    <row r="131" spans="2:191" s="6" customFormat="1" ht="89.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:191" s="6" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B131" s="114"/>
       <c r="C131" s="114">
         <v>387</v>
@@ -34181,7 +34175,7 @@
       <c r="GH131" s="1"/>
       <c r="GI131" s="1"/>
     </row>
-    <row r="132" spans="2:191" s="6" customFormat="1" ht="53.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:191" s="6" customFormat="1" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="98" t="s">
         <v>1097</v>
       </c>
@@ -34391,7 +34385,7 @@
       <c r="GH132" s="1"/>
       <c r="GI132" s="1"/>
     </row>
-    <row r="133" spans="2:191" s="6" customFormat="1" ht="53.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:191" s="6" customFormat="1" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="93" t="s">
         <v>1097</v>
       </c>
@@ -34603,7 +34597,7 @@
       <c r="GH133" s="1"/>
       <c r="GI133" s="1"/>
     </row>
-    <row r="134" spans="2:191" s="6" customFormat="1" ht="53.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:191" s="6" customFormat="1" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="144" t="s">
         <v>1097</v>
       </c>
@@ -34811,7 +34805,7 @@
       <c r="GH134" s="1"/>
       <c r="GI134" s="1"/>
     </row>
-    <row r="135" spans="2:191" s="6" customFormat="1" ht="52.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:191" s="6" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="124">
         <v>58</v>
       </c>
@@ -35033,7 +35027,7 @@
       <c r="GH135" s="1"/>
       <c r="GI135" s="1"/>
     </row>
-    <row r="136" spans="2:191" s="6" customFormat="1" ht="52.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:191" s="6" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="54">
         <v>74</v>
       </c>
@@ -35247,7 +35241,7 @@
       <c r="GH136" s="1"/>
       <c r="GI136" s="1"/>
     </row>
-    <row r="137" spans="2:191" s="6" customFormat="1" ht="52.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:191" s="6" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="93" t="s">
         <v>1097</v>
       </c>
@@ -35457,7 +35451,7 @@
       <c r="GH137" s="1"/>
       <c r="GI137" s="1"/>
     </row>
-    <row r="138" spans="2:191" s="6" customFormat="1" ht="53.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:191" s="6" customFormat="1" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="98" t="s">
         <v>1097</v>
       </c>
@@ -35667,7 +35661,7 @@
       <c r="GH138" s="1"/>
       <c r="GI138" s="1"/>
     </row>
-    <row r="139" spans="2:191" s="6" customFormat="1" ht="53.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:191" s="6" customFormat="1" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="93" t="s">
         <v>1097</v>
       </c>
@@ -35877,7 +35871,7 @@
       <c r="GH139" s="1"/>
       <c r="GI139" s="1"/>
     </row>
-    <row r="140" spans="2:191" s="6" customFormat="1" ht="52.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:191" s="6" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="93" t="s">
         <v>1097</v>
       </c>
@@ -36087,7 +36081,7 @@
       <c r="GH140" s="1"/>
       <c r="GI140" s="1"/>
     </row>
-    <row r="141" spans="2:191" s="6" customFormat="1" ht="53.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:191" s="6" customFormat="1" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="116"/>
       <c r="C141" s="114">
         <v>380</v>
@@ -36311,7 +36305,7 @@
       <c r="GH141" s="1"/>
       <c r="GI141" s="1"/>
     </row>
-    <row r="142" spans="2:191" s="6" customFormat="1" ht="26.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:191" s="6" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="1"/>
       <c r="C142" s="1">
         <v>374</v>
@@ -36533,7 +36527,7 @@
       <c r="GH142" s="32"/>
       <c r="GI142" s="32"/>
     </row>
-    <row r="143" spans="2:191" s="6" customFormat="1" ht="26.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:191" s="6" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="114"/>
       <c r="C143" s="114">
         <v>402</v>
@@ -36755,7 +36749,7 @@
       <c r="GH143" s="32"/>
       <c r="GI143" s="32"/>
     </row>
-    <row r="144" spans="2:191" s="6" customFormat="1" ht="26.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:191" s="6" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="62"/>
       <c r="C144" s="1">
         <v>363</v>
@@ -36981,7 +36975,7 @@
       <c r="GH144" s="32"/>
       <c r="GI144" s="32"/>
     </row>
-    <row r="145" spans="2:191" s="6" customFormat="1" ht="26.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:191" s="6" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="54"/>
       <c r="C145" s="1">
         <v>103</v>
@@ -37187,7 +37181,7 @@
       <c r="GH145" s="32"/>
       <c r="GI145" s="32"/>
     </row>
-    <row r="146" spans="2:191" s="6" customFormat="1" ht="26.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:191" s="6" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="54"/>
       <c r="C146" s="1" t="s">
         <v>2038</v>
@@ -37395,7 +37389,7 @@
       <c r="GH146" s="32"/>
       <c r="GI146" s="32"/>
     </row>
-    <row r="147" spans="2:191" s="6" customFormat="1" ht="26.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:191" s="6" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="51"/>
       <c r="C147" s="1" t="s">
         <v>2039</v>
@@ -37601,7 +37595,7 @@
       <c r="GH147" s="32"/>
       <c r="GI147" s="32"/>
     </row>
-    <row r="148" spans="2:191" s="6" customFormat="1" ht="52.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:191" s="6" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="115">
         <v>14</v>
       </c>
@@ -37826,7 +37820,7 @@
       <c r="GH148" s="32"/>
       <c r="GI148" s="32"/>
     </row>
-    <row r="149" spans="2:191" s="6" customFormat="1" ht="39.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:191" s="6" customFormat="1" ht="39.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="115">
         <v>14</v>
       </c>
@@ -38059,7 +38053,7 @@
       <c r="GH149" s="32"/>
       <c r="GI149" s="32"/>
     </row>
-    <row r="150" spans="2:191" s="6" customFormat="1" ht="39.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:191" s="6" customFormat="1" ht="39.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="124">
         <v>44</v>
       </c>
@@ -38282,7 +38276,7 @@
       <c r="GH150" s="32"/>
       <c r="GI150" s="32"/>
     </row>
-    <row r="151" spans="2:191" s="6" customFormat="1" ht="26.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:191" s="6" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="54">
         <v>85</v>
       </c>
@@ -38500,7 +38494,7 @@
       <c r="GH151" s="32"/>
       <c r="GI151" s="32"/>
     </row>
-    <row r="152" spans="2:191" s="6" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:191" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B152" s="54">
         <v>68</v>
       </c>
@@ -38724,7 +38718,7 @@
       <c r="GH152" s="32"/>
       <c r="GI152" s="32"/>
     </row>
-    <row r="153" spans="2:191" s="6" customFormat="1" ht="52.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:191" s="6" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="98" t="s">
         <v>1097</v>
       </c>
@@ -38936,7 +38930,7 @@
       <c r="GH153" s="32"/>
       <c r="GI153" s="32"/>
     </row>
-    <row r="154" spans="2:191" s="6" customFormat="1" ht="39.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:191" s="6" customFormat="1" ht="39.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="54">
         <v>109</v>
       </c>
@@ -39160,7 +39154,7 @@
       <c r="GH154" s="32"/>
       <c r="GI154" s="32"/>
     </row>
-    <row r="155" spans="2:191" s="6" customFormat="1" ht="53.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:191" s="6" customFormat="1" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="54">
         <v>93</v>
       </c>
@@ -39380,7 +39374,7 @@
       <c r="GH155" s="32"/>
       <c r="GI155" s="32"/>
     </row>
-    <row r="156" spans="2:191" s="6" customFormat="1" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:191" s="6" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="98" t="s">
         <v>1097</v>
       </c>
@@ -39592,7 +39586,7 @@
       <c r="GH156" s="32"/>
       <c r="GI156" s="32"/>
     </row>
-    <row r="157" spans="2:191" s="6" customFormat="1" ht="39.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:191" s="6" customFormat="1" ht="39.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="115">
         <v>33</v>
       </c>
@@ -39815,7 +39809,7 @@
       <c r="GH157" s="32"/>
       <c r="GI157" s="32"/>
     </row>
-    <row r="158" spans="2:191" s="6" customFormat="1" ht="26.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:191" s="6" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="93" t="s">
         <v>1097</v>
       </c>
@@ -40025,7 +40019,7 @@
       <c r="GH158" s="32"/>
       <c r="GI158" s="32"/>
     </row>
-    <row r="159" spans="2:191" s="6" customFormat="1" ht="26.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:191" s="6" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="51">
         <v>129</v>
       </c>
@@ -40265,7 +40259,7 @@
       <c r="GH159" s="32"/>
       <c r="GI159" s="32"/>
     </row>
-    <row r="160" spans="2:191" s="6" customFormat="1" ht="26.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:191" s="6" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="54">
         <v>130</v>
       </c>
@@ -40489,7 +40483,7 @@
       <c r="GH160" s="32"/>
       <c r="GI160" s="32"/>
     </row>
-    <row r="161" spans="2:191" s="6" customFormat="1" ht="39.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:191" s="6" customFormat="1" ht="39.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="115">
         <v>107</v>
       </c>
@@ -40713,7 +40707,7 @@
       <c r="GH161" s="32"/>
       <c r="GI161" s="32"/>
     </row>
-    <row r="162" spans="2:191" s="6" customFormat="1" ht="114.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:191" s="6" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B162" s="124">
         <v>27</v>
       </c>
@@ -40946,7 +40940,7 @@
       <c r="GH162" s="32"/>
       <c r="GI162" s="32"/>
     </row>
-    <row r="163" spans="2:191" s="6" customFormat="1" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:191" s="6" customFormat="1" ht="77.25" x14ac:dyDescent="0.25">
       <c r="B163" s="54">
         <v>131</v>
       </c>
@@ -41166,7 +41160,7 @@
       <c r="GH163" s="32"/>
       <c r="GI163" s="32"/>
     </row>
-    <row r="164" spans="2:191" s="6" customFormat="1" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:191" s="6" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="1"/>
       <c r="C164" s="1">
         <v>418</v>
@@ -41390,7 +41384,7 @@
       <c r="GH164" s="32"/>
       <c r="GI164" s="32"/>
     </row>
-    <row r="165" spans="2:191" s="6" customFormat="1" ht="185.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:191" s="6" customFormat="1" ht="185.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="51">
         <v>11</v>
       </c>
@@ -41619,7 +41613,7 @@
       <c r="GH165" s="32"/>
       <c r="GI165" s="32"/>
     </row>
-    <row r="166" spans="2:191" s="6" customFormat="1" ht="185.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:191" s="6" customFormat="1" ht="185.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="54">
         <v>12</v>
       </c>
@@ -41848,7 +41842,7 @@
       <c r="GH166" s="32"/>
       <c r="GI166" s="32"/>
     </row>
-    <row r="167" spans="2:191" s="6" customFormat="1" ht="132.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:191" s="6" customFormat="1" ht="132.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="54">
         <v>13</v>
       </c>
@@ -42077,7 +42071,7 @@
       <c r="GH167" s="32"/>
       <c r="GI167" s="32"/>
     </row>
-    <row r="168" spans="2:191" s="6" customFormat="1" ht="187.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:191" s="6" customFormat="1" ht="187.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="171" t="s">
         <v>1097</v>
       </c>
@@ -42287,7 +42281,7 @@
       <c r="GH168" s="32"/>
       <c r="GI168" s="32"/>
     </row>
-    <row r="169" spans="2:191" s="6" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:191" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B169" s="54">
         <v>66</v>
       </c>
@@ -42507,7 +42501,7 @@
       <c r="GH169" s="32"/>
       <c r="GI169" s="32"/>
     </row>
-    <row r="170" spans="2:191" s="6" customFormat="1" ht="114.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:191" s="6" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B170" s="93" t="s">
         <v>1097</v>
       </c>
@@ -42721,7 +42715,7 @@
       <c r="GH170" s="32"/>
       <c r="GI170" s="32"/>
     </row>
-    <row r="171" spans="2:191" s="6" customFormat="1" ht="26.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:191" s="6" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="171" t="s">
         <v>1097</v>
       </c>
@@ -42931,7 +42925,7 @@
       <c r="GH171" s="32"/>
       <c r="GI171" s="32"/>
     </row>
-    <row r="172" spans="2:191" s="6" customFormat="1" ht="71.650000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:191" s="6" customFormat="1" ht="71.650000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="144" t="s">
         <v>1097</v>
       </c>
@@ -43141,7 +43135,7 @@
       <c r="GH172" s="32"/>
       <c r="GI172" s="32"/>
     </row>
-    <row r="173" spans="2:191" s="6" customFormat="1" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:191" s="6" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="93" t="s">
         <v>1097</v>
       </c>
@@ -43353,7 +43347,7 @@
       <c r="GH173" s="32"/>
       <c r="GI173" s="32"/>
     </row>
-    <row r="174" spans="2:191" s="6" customFormat="1" ht="79.900000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:191" s="6" customFormat="1" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="124">
         <v>72</v>
       </c>
@@ -43573,7 +43567,7 @@
       <c r="GH174" s="32"/>
       <c r="GI174" s="32"/>
     </row>
-    <row r="175" spans="2:191" s="6" customFormat="1" ht="178.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:191" s="6" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
       <c r="B175" s="115">
         <v>69</v>
       </c>
@@ -44119,7 +44113,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="176" spans="2:191" s="6" customFormat="1" ht="40.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:191" s="6" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="93" t="s">
         <v>1097</v>
       </c>
@@ -44657,7 +44651,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="177" spans="2:191" s="6" customFormat="1" ht="153.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:191" s="6" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="98" t="s">
         <v>1097</v>
       </c>
@@ -44873,7 +44867,7 @@
       <c r="GH177" s="32"/>
       <c r="GI177" s="32"/>
     </row>
-    <row r="178" spans="2:191" s="6" customFormat="1" ht="39.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:191" s="6" customFormat="1" ht="39.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="115">
         <v>114</v>
       </c>
@@ -45097,7 +45091,7 @@
       <c r="GH178" s="32"/>
       <c r="GI178" s="32"/>
     </row>
-    <row r="179" spans="2:191" s="6" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:191" s="6" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1"/>
       <c r="C179" s="1">
         <v>404</v>
@@ -45323,7 +45317,7 @@
       <c r="GH179" s="32"/>
       <c r="GI179" s="32"/>
     </row>
-    <row r="180" spans="2:191" s="6" customFormat="1" ht="52.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:191" s="6" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="98" t="s">
         <v>1097</v>
       </c>
@@ -45531,7 +45525,7 @@
       <c r="GH180" s="32"/>
       <c r="GI180" s="32"/>
     </row>
-    <row r="181" spans="2:191" s="6" customFormat="1" ht="86.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:191" s="6" customFormat="1" ht="86.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="93" t="s">
         <v>1097</v>
       </c>
@@ -45743,7 +45737,7 @@
       <c r="GH181" s="32"/>
       <c r="GI181" s="32"/>
     </row>
-    <row r="182" spans="2:191" ht="57.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:191" ht="57.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="144" t="s">
         <v>1097</v>
       </c>
@@ -45951,7 +45945,7 @@
       <c r="GH182" s="32"/>
       <c r="GI182" s="32"/>
     </row>
-    <row r="183" spans="2:191" ht="53.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:191" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="171" t="s">
         <v>1097</v>
       </c>
@@ -46159,7 +46153,7 @@
       <c r="GH183" s="32"/>
       <c r="GI183" s="32"/>
     </row>
-    <row r="184" spans="2:191" ht="129.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:191" ht="129.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="93" t="s">
         <v>1097</v>
       </c>
@@ -46373,7 +46367,7 @@
       <c r="GH184" s="32"/>
       <c r="GI184" s="32"/>
     </row>
-    <row r="185" spans="2:191" ht="129.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:191" ht="129.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="93" t="s">
         <v>1097</v>
       </c>
@@ -46587,7 +46581,7 @@
       <c r="GH185" s="32"/>
       <c r="GI185" s="32"/>
     </row>
-    <row r="186" spans="2:191" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:191" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="54"/>
       <c r="C186" s="1" t="s">
         <v>2211</v>
@@ -46795,7 +46789,7 @@
       <c r="GH186" s="32"/>
       <c r="GI186" s="32"/>
     </row>
-    <row r="187" spans="2:191" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:191" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="171" t="s">
         <v>1097</v>
       </c>
@@ -46842,7 +46836,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="188" spans="2:191" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:191" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="114"/>
       <c r="C188" s="114">
         <v>349</v>
@@ -46909,7 +46903,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="189" spans="2:191" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:191" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="54">
         <v>183</v>
       </c>
@@ -46978,7 +46972,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="190" spans="2:191" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:191" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="171" t="s">
         <v>1097</v>
       </c>
@@ -47025,7 +47019,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="191" spans="2:191" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:191" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="54">
         <v>77</v>
       </c>
@@ -47074,7 +47068,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="192" spans="2:191" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:191" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B192" s="144" t="s">
         <v>1097</v>
       </c>
@@ -47121,7 +47115,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="193" spans="1:28" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:28" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="116"/>
       <c r="C193" s="114">
         <v>336</v>
@@ -47190,7 +47184,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="194" spans="1:28" ht="179.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:28" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="54">
         <v>171</v>
       </c>
@@ -47261,7 +47255,7 @@
       </c>
       <c r="AB194" s="212"/>
     </row>
-    <row r="195" spans="1:28" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:28" ht="56.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="94"/>
       <c r="B195" s="115">
         <v>5</v>
@@ -47326,7 +47320,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="196" spans="1:28" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:28" ht="56.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="94"/>
       <c r="B196" s="124">
         <v>36</v>
@@ -47389,7 +47383,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="197" spans="1:28" ht="114.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:28" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A197" s="94"/>
       <c r="B197" s="115">
         <v>37</v>
@@ -47452,7 +47446,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="198" spans="1:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="144" t="s">
         <v>1097</v>
       </c>
@@ -47499,7 +47493,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="199" spans="1:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="62"/>
       <c r="C199" s="1">
         <v>416</v>
@@ -47562,7 +47556,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="200" spans="1:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="97"/>
       <c r="C200" s="1">
         <v>150</v>
@@ -47603,7 +47597,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="201" spans="1:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="418" t="s">
         <v>1097</v>
       </c>
@@ -47650,7 +47644,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="202" spans="1:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="410">
         <v>101</v>
       </c>
@@ -47711,7 +47705,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="203" spans="1:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="97">
         <v>79</v>
       </c>
@@ -47760,7 +47754,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="204" spans="1:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="243"/>
       <c r="C204" s="114">
         <v>421</v>
@@ -47819,7 +47813,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="205" spans="1:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="411" t="s">
         <v>1097</v>
       </c>
@@ -47870,7 +47864,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="206" spans="1:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="411" t="s">
         <v>1097</v>
       </c>
@@ -47918,7 +47912,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="207" spans="1:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B207" s="243"/>
       <c r="C207" s="114">
         <v>332</v>
@@ -47993,7 +47987,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="208" spans="1:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="97">
         <v>166</v>
       </c>
@@ -48068,7 +48062,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="209" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="97"/>
       <c r="C209" s="34" t="s">
         <v>2260</v>
@@ -48105,7 +48099,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="210" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="97">
         <v>158</v>
       </c>
@@ -48144,7 +48138,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="211" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="97"/>
       <c r="C211" s="34" t="s">
         <v>2250</v>
@@ -48181,7 +48175,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="212" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="97"/>
       <c r="C212" s="34" t="s">
         <v>2251</v>
@@ -48215,7 +48209,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="213" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="410">
         <v>112</v>
       </c>
@@ -48276,7 +48270,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="214" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="243"/>
       <c r="C214" s="114">
         <v>381</v>
@@ -48339,7 +48333,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="215" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B215" s="243"/>
       <c r="C215" s="114">
         <v>364</v>
@@ -48404,7 +48398,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="216" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B216" s="411" t="s">
         <v>1097</v>
       </c>
@@ -48453,7 +48447,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="217" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B217" s="410">
         <v>99</v>
       </c>
@@ -48514,7 +48508,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="218" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B218" s="97">
         <v>134</v>
       </c>
@@ -48589,7 +48583,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="219" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B219" s="411" t="s">
         <v>1097</v>
       </c>
@@ -48638,7 +48632,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="220" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="97">
         <v>167</v>
       </c>
@@ -48709,7 +48703,7 @@
       </c>
       <c r="AB220" s="212"/>
     </row>
-    <row r="221" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="97"/>
       <c r="C221" s="34" t="s">
         <v>2314</v>
@@ -48746,7 +48740,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="222" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="97"/>
       <c r="C222" s="34" t="s">
         <v>2315</v>
@@ -48780,7 +48774,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="223" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="432"/>
       <c r="C223" s="114">
         <v>333</v>
@@ -48855,7 +48849,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="224" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="97"/>
       <c r="C224" s="34" t="s">
         <v>2316</v>
@@ -48889,7 +48883,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="225" spans="1:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="97">
         <v>87</v>
       </c>
@@ -48936,7 +48930,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="226" spans="1:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B226" s="411" t="s">
         <v>1097</v>
       </c>
@@ -48987,7 +48981,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="227" spans="1:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B227" s="411" t="s">
         <v>1097</v>
       </c>
@@ -49040,7 +49034,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="228" spans="1:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B228" s="418" t="s">
         <v>1097</v>
       </c>
@@ -49087,7 +49081,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="229" spans="1:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B229" s="411" t="s">
         <v>1097</v>
       </c>
@@ -49136,7 +49130,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="230" spans="1:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="114"/>
       <c r="B230" s="410">
         <v>143</v>
@@ -49212,7 +49206,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="231" spans="1:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="410">
         <v>142</v>
       </c>
@@ -49289,7 +49283,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="232" spans="1:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="410">
         <v>76</v>
       </c>
@@ -49348,7 +49342,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="233" spans="1:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="52"/>
       <c r="C233" s="1">
         <v>365</v>
@@ -49405,7 +49399,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="234" spans="1:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="52"/>
       <c r="C234" s="1" t="s">
         <v>2293</v>
@@ -49440,7 +49434,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="235" spans="1:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="410">
         <v>92</v>
       </c>
@@ -49501,7 +49495,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="236" spans="1:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="52"/>
       <c r="C236" s="1" t="s">
         <v>2292</v>
@@ -49539,7 +49533,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="237" spans="1:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="243"/>
       <c r="C237" s="114">
         <v>408</v>
@@ -49602,7 +49596,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="238" spans="1:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B238" s="97">
         <v>35</v>
       </c>
@@ -49659,7 +49653,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="239" spans="1:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="243"/>
       <c r="C239" s="114">
         <v>390</v>
@@ -49718,7 +49712,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="240" spans="1:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="243"/>
       <c r="C240" s="114">
         <v>366</v>
@@ -49781,7 +49775,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="241" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="410">
         <v>125</v>
       </c>
@@ -49840,7 +49834,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="242" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B242" s="410">
         <v>169</v>
       </c>
@@ -49917,7 +49911,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="243" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B243" s="243"/>
       <c r="C243" s="114">
         <v>335</v>
@@ -49992,7 +49986,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="244" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B244" s="411" t="s">
         <v>1097</v>
       </c>
@@ -50042,7 +50036,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="245" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B245" s="410">
         <v>170</v>
       </c>
@@ -50117,7 +50111,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="246" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B246" s="97">
         <v>140</v>
       </c>
@@ -50196,7 +50190,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="247" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="410">
         <v>110</v>
       </c>
@@ -50255,7 +50249,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="248" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="243"/>
       <c r="C248" s="114">
         <v>392</v>
@@ -50316,7 +50310,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="249" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="410">
         <v>41</v>
       </c>
@@ -50376,7 +50370,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="250" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="410">
         <v>42</v>
       </c>
@@ -50436,7 +50430,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="251" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B251" s="411" t="s">
         <v>1097</v>
       </c>
@@ -50487,7 +50481,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="252" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="243"/>
       <c r="C252" s="114">
         <v>382</v>
@@ -50550,7 +50544,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="253" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="243"/>
       <c r="C253" s="114">
         <v>393</v>
@@ -50609,7 +50603,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="254" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B254" s="410">
         <v>177</v>
       </c>
@@ -50678,7 +50672,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="255" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B255" s="411" t="s">
         <v>1097</v>
       </c>
@@ -50725,7 +50719,7 @@
       </c>
       <c r="AB255" s="231"/>
     </row>
-    <row r="256" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B256" s="243"/>
       <c r="C256" s="114">
         <v>338</v>
@@ -50792,7 +50786,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="257" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B257" s="410">
         <v>153</v>
       </c>
@@ -50867,7 +50861,7 @@
       </c>
       <c r="AB257" s="170"/>
     </row>
-    <row r="258" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B258" s="243"/>
       <c r="C258" s="114">
         <v>322</v>
@@ -50942,7 +50936,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="259" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="97">
         <v>10</v>
       </c>
@@ -50991,7 +50985,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="260" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B260" s="486" t="s">
         <v>1097</v>
       </c>
@@ -51038,7 +51032,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="261" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B261" s="411" t="s">
         <v>1097</v>
       </c>
@@ -51082,7 +51076,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="262" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B262" s="418" t="s">
         <v>1097</v>
       </c>
@@ -51129,7 +51123,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="263" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="243"/>
       <c r="C263" s="114">
         <v>340</v>
@@ -51196,7 +51190,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="264" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B264" s="410">
         <v>100</v>
       </c>
@@ -51257,7 +51251,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="265" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B265" s="418" t="s">
         <v>1097</v>
       </c>
@@ -51306,7 +51300,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="266" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B266" s="411" t="s">
         <v>1097</v>
       </c>
@@ -51350,7 +51344,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="267" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B267" s="418" t="s">
         <v>1097</v>
       </c>
@@ -51399,7 +51393,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="268" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B268" s="97">
         <v>84</v>
       </c>
@@ -51453,7 +51447,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="269" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="243"/>
       <c r="C269" s="114">
         <v>405</v>
@@ -51512,7 +51506,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="270" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B270" s="97">
         <v>156</v>
       </c>
@@ -51587,7 +51581,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="271" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B271" s="418" t="s">
         <v>1097</v>
       </c>
@@ -51634,7 +51628,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="272" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B272" s="97">
         <v>179</v>
       </c>
@@ -51701,7 +51695,7 @@
       </c>
       <c r="AB272" s="212"/>
     </row>
-    <row r="273" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="243"/>
       <c r="C273" s="114">
         <v>325</v>
@@ -51774,7 +51768,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="274" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B274" s="410">
         <v>22</v>
       </c>
@@ -51832,7 +51826,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="275" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B275" s="418" t="s">
         <v>1097</v>
       </c>
@@ -51877,7 +51871,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="276" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B276" s="410">
         <v>65</v>
       </c>
@@ -51934,7 +51928,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="277" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="410">
         <v>86</v>
       </c>
@@ -51993,7 +51987,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="278" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="243"/>
       <c r="C278" s="114">
         <v>394</v>
@@ -52054,7 +52048,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="279" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B279" s="52"/>
       <c r="C279" s="1" t="s">
         <v>2361</v>
@@ -52085,7 +52079,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="280" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B280" s="410">
         <v>149</v>
       </c>
@@ -52162,7 +52156,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="281" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B281" s="243"/>
       <c r="C281" s="114">
         <v>318</v>
@@ -52237,7 +52231,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="282" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B282" s="410">
         <v>178</v>
       </c>
@@ -52308,7 +52302,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="283" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B283" s="418" t="s">
         <v>1097</v>
       </c>
@@ -52355,7 +52349,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="284" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B284" s="243"/>
       <c r="C284" s="114">
         <v>339</v>
@@ -52424,7 +52418,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="285" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="97">
         <v>51</v>
       </c>
@@ -52484,7 +52478,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="286" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="97">
         <v>52</v>
       </c>
@@ -52541,7 +52535,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="287" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B287" s="418" t="s">
         <v>1097</v>
       </c>
@@ -52588,7 +52582,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row r="288" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="52" t="s">
         <v>1097</v>
       </c>
@@ -52647,7 +52641,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="289" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B289" s="97">
         <v>168</v>
       </c>
@@ -52722,7 +52716,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="290" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B290" s="243"/>
       <c r="C290" s="114">
         <v>334</v>
@@ -52791,7 +52785,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="291" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B291" s="410">
         <v>117</v>
       </c>
@@ -52850,7 +52844,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="292" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B292" s="418" t="s">
         <v>1097</v>
       </c>
@@ -52897,7 +52891,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="293" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B293" s="411" t="s">
         <v>1097</v>
       </c>
@@ -52950,7 +52944,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="294" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="52"/>
       <c r="C294" s="1">
         <v>384</v>
@@ -53006,7 +53000,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="295" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B295" s="410">
         <v>138</v>
       </c>
@@ -53083,7 +53077,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="296" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B296" s="97">
         <v>165</v>
       </c>
@@ -53156,7 +53150,7 @@
       </c>
       <c r="AB296" s="212"/>
     </row>
-    <row r="297" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B297" s="243"/>
       <c r="C297" s="114">
         <v>331</v>
@@ -53227,7 +53221,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="298" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="410">
         <v>104</v>
       </c>
@@ -53284,7 +53278,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="299" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="97"/>
       <c r="C299" s="34" t="s">
         <v>2490</v>
@@ -53321,7 +53315,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="300" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="410"/>
       <c r="C300" s="114" t="s">
         <v>2489</v>
@@ -53368,7 +53362,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="301" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B301" s="97"/>
       <c r="C301" s="34" t="s">
         <v>2491</v>
@@ -53401,7 +53395,7 @@
       <c r="Z301" s="201"/>
       <c r="AA301" s="497"/>
     </row>
-    <row r="302" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B302" s="410">
         <v>82</v>
       </c>
@@ -53462,7 +53456,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="303" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B303" s="411" t="s">
         <v>1097</v>
       </c>
@@ -53513,7 +53507,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="304" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B304" s="410">
         <v>180</v>
       </c>
@@ -53586,7 +53580,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="305" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B305" s="418" t="s">
         <v>1097</v>
       </c>
@@ -53633,7 +53627,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="306" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="52"/>
       <c r="C306" s="1">
         <v>343</v>
@@ -53704,7 +53698,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="307" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B307" s="97">
         <v>124</v>
       </c>
@@ -53754,7 +53748,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="308" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B308" s="410">
         <v>157</v>
       </c>
@@ -53831,7 +53825,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="309" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B309" s="52"/>
       <c r="C309" s="1">
         <v>326</v>
@@ -53908,7 +53902,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="310" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="243"/>
       <c r="C310" s="114">
         <v>383</v>
@@ -53969,7 +53963,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="311" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="52"/>
       <c r="C311" s="1">
         <v>406</v>
@@ -54024,7 +54018,7 @@
       </c>
       <c r="AB311" s="447"/>
     </row>
-    <row r="312" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B312" s="410">
         <v>78</v>
       </c>
@@ -54085,7 +54079,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="313" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B313" s="411" t="s">
         <v>1097</v>
       </c>
@@ -54136,7 +54130,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="314" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B314" s="410">
         <v>152</v>
       </c>
@@ -54213,7 +54207,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="315" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B315" s="52"/>
       <c r="C315" s="1">
         <v>321</v>
@@ -54286,7 +54280,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="316" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="410">
         <v>105</v>
       </c>
@@ -54345,7 +54339,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="317" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="416" t="s">
         <v>1097</v>
       </c>
@@ -54392,7 +54386,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="318" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="243"/>
       <c r="C318" s="114">
         <v>375</v>
@@ -54453,7 +54447,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="319" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B319" s="243"/>
       <c r="C319" s="114">
         <v>367</v>
@@ -54516,7 +54510,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="320" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B320" s="97">
         <v>62</v>
       </c>
@@ -54563,7 +54557,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="321" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B321" s="418" t="s">
         <v>1097</v>
       </c>
@@ -54610,7 +54604,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="322" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B322" s="97">
         <v>123</v>
       </c>
@@ -54660,7 +54654,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="323" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B323" s="410"/>
       <c r="C323" s="114" t="s">
         <v>2501</v>
@@ -54707,7 +54701,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="324" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="243"/>
       <c r="C324" s="114">
         <v>397</v>
@@ -54768,7 +54762,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="325" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B325" s="411" t="s">
         <v>1097</v>
       </c>
@@ -54817,7 +54811,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="326" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B326" s="418" t="s">
         <v>1097</v>
       </c>
@@ -54864,7 +54858,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="327" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B327" s="243"/>
       <c r="C327" s="114">
         <v>327</v>
@@ -54939,7 +54933,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="328" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B328" s="418" t="s">
         <v>1097</v>
       </c>
@@ -54984,7 +54978,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="329" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B329" s="418" t="s">
         <v>1097</v>
       </c>
@@ -55031,7 +55025,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="330" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B330" s="418" t="s">
         <v>1097</v>
       </c>
@@ -55078,7 +55072,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="331" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B331" s="411" t="s">
         <v>1097</v>
       </c>
@@ -55127,7 +55121,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="332" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B332" s="411" t="s">
         <v>1097</v>
       </c>
@@ -55176,7 +55170,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="333" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B333" s="411" t="s">
         <v>1097</v>
       </c>
@@ -55222,7 +55216,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="334" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B334" s="418" t="s">
         <v>1097</v>
       </c>
@@ -55269,7 +55263,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="335" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B335" s="418" t="s">
         <v>1097</v>
       </c>
@@ -55316,7 +55310,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="336" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B336" s="410">
         <v>132</v>
       </c>
@@ -55393,7 +55387,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="337" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B337" s="410">
         <v>133</v>
       </c>
@@ -55452,7 +55446,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="338" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="410">
         <v>49</v>
       </c>
@@ -55514,7 +55508,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="339" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="410">
         <v>71</v>
       </c>
@@ -55573,7 +55567,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="340" spans="2:28" ht="119.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:28" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B340" s="418" t="s">
         <v>1097</v>
       </c>
@@ -55620,7 +55614,7 @@
         <v>2532</v>
       </c>
     </row>
-    <row r="341" spans="2:28" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:28" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="115">
         <v>83</v>
       </c>
@@ -55681,7 +55675,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="342" spans="2:28" ht="242.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:28" ht="242.25" x14ac:dyDescent="0.2">
       <c r="B342" s="93" t="s">
         <v>1097</v>
       </c>
@@ -55727,7 +55721,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="343" spans="2:28" ht="204.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:28" ht="204.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B343" s="93" t="s">
         <v>1097</v>
       </c>
@@ -55776,7 +55770,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="344" spans="2:28" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:28" ht="153.75" x14ac:dyDescent="0.25">
       <c r="B344" s="114"/>
       <c r="C344" s="114">
         <v>403</v>
@@ -55839,7 +55833,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="345" spans="2:28" ht="153.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:28" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C345" s="1">
         <v>409</v>
       </c>
@@ -55901,7 +55895,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="346" spans="2:28" ht="204" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:28" ht="204" x14ac:dyDescent="0.2">
       <c r="B346" s="115">
         <v>175</v>
       </c>
@@ -55968,7 +55962,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="347" spans="2:28" ht="127.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:28" ht="127.5" x14ac:dyDescent="0.2">
       <c r="B347" s="144" t="s">
         <v>1097</v>
       </c>
@@ -56015,7 +56009,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="348" spans="2:28" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:28" ht="165.75" x14ac:dyDescent="0.2">
       <c r="B348" s="114"/>
       <c r="C348" s="114">
         <v>337</v>
@@ -56080,7 +56074,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="349" spans="2:28" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:28" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B349" s="144" t="s">
         <v>1097</v>
       </c>
@@ -56127,7 +56121,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="350" spans="2:28" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:28" ht="39" x14ac:dyDescent="0.25">
       <c r="B350" s="115">
         <v>162</v>
       </c>
@@ -56200,7 +56194,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="351" spans="2:28" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:28" ht="102" x14ac:dyDescent="0.2">
       <c r="B351" s="114"/>
       <c r="C351" s="114">
         <v>328</v>
@@ -56273,7 +56267,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="352" spans="2:28" ht="243" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:28" ht="243" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="54">
         <v>115</v>
       </c>
@@ -56328,7 +56322,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="353" spans="1:28" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:28" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C353" s="1" t="s">
         <v>2554</v>
       </c>
@@ -56373,7 +56367,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="354" spans="1:28" s="94" customFormat="1" ht="153" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:28" s="94" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="1"/>
       <c r="C354" s="1">
         <v>410</v>
@@ -56436,7 +56430,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="355" spans="1:28" ht="267.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:28" ht="267.75" x14ac:dyDescent="0.2">
       <c r="A355" s="114"/>
       <c r="B355" s="115">
         <v>151</v>
@@ -56514,7 +56508,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="356" spans="1:28" ht="178.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:28" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A356" s="114"/>
       <c r="B356" s="114"/>
       <c r="C356" s="114">
@@ -56590,7 +56584,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="357" spans="1:28" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:28" ht="63.75" x14ac:dyDescent="0.2">
       <c r="C357" s="1" t="s">
         <v>2569</v>
       </c>
@@ -56633,7 +56627,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="358" spans="1:28" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:28" ht="63.75" x14ac:dyDescent="0.2">
       <c r="C358" s="1" t="s">
         <v>2570</v>
       </c>
@@ -56676,7 +56670,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="359" spans="1:28" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C359" s="1" t="s">
         <v>2571</v>
       </c>
@@ -56719,7 +56713,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="360" spans="1:28" s="94" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:28" s="94" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B360" s="115">
         <v>80</v>
       </c>
@@ -56776,7 +56770,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="361" spans="1:28" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:28" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B361" s="93" t="s">
         <v>1097</v>
       </c>
@@ -56822,7 +56816,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="362" spans="1:28" s="94" customFormat="1" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:28" s="94" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B362" s="54">
         <v>126</v>
       </c>
@@ -56881,7 +56875,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="363" spans="1:28" s="502" customFormat="1" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:28" s="502" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="B363" s="115">
         <v>60</v>
       </c>
@@ -56940,7 +56934,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="364" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="B364" s="93" t="s">
         <v>1097</v>
       </c>
@@ -56986,7 +56980,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="365" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="B365" s="115">
         <v>155</v>
       </c>
@@ -57063,7 +57057,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="366" spans="1:28" s="94" customFormat="1" ht="337.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:28" s="94" customFormat="1" ht="337.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B366" s="114"/>
       <c r="C366" s="114">
         <v>324</v>
@@ -57138,7 +57132,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="367" spans="1:28" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:28" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A367" s="94"/>
       <c r="B367" s="114"/>
       <c r="C367" s="114">
@@ -57200,7 +57194,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="368" spans="1:28" ht="141" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:28" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B368" s="93" t="s">
         <v>1097</v>
       </c>
@@ -57249,7 +57243,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="369" spans="2:28" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:28" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B369" s="241" t="s">
         <v>1097</v>
       </c>
@@ -57296,7 +57290,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="370" spans="2:28" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:28" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B370" s="93" t="s">
         <v>1097</v>
       </c>
@@ -57349,7 +57343,7 @@
         <v>2591</v>
       </c>
     </row>
-    <row r="371" spans="2:28" s="94" customFormat="1" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:28" s="94" customFormat="1" ht="64.5" x14ac:dyDescent="0.25">
       <c r="B371" s="54">
         <v>73</v>
       </c>
@@ -57410,7 +57404,7 @@
       </c>
       <c r="AB371" s="2"/>
     </row>
-    <row r="372" spans="2:28" s="94" customFormat="1" ht="102.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:28" s="94" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="54"/>
       <c r="C372" s="1" t="s">
         <v>2598</v>
@@ -57461,7 +57455,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="373" spans="2:28" s="94" customFormat="1" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:28" s="94" customFormat="1" ht="115.5" x14ac:dyDescent="0.25">
       <c r="B373" s="54"/>
       <c r="C373" s="1" t="s">
         <v>2593</v>
@@ -57512,7 +57506,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="374" spans="2:28" ht="267.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:28" ht="267.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C374" s="1">
         <v>368</v>
       </c>
@@ -57573,7 +57567,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="375" spans="2:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:28" ht="51" x14ac:dyDescent="0.2">
       <c r="B375" s="115">
         <v>136</v>
       </c>
@@ -57646,7 +57640,7 @@
       </c>
       <c r="AB375" s="123"/>
     </row>
-    <row r="376" spans="2:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:28" ht="90" x14ac:dyDescent="0.25">
       <c r="B376" s="54"/>
       <c r="C376" s="1" t="s">
         <v>2608</v>
@@ -57682,7 +57676,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="377" spans="2:28" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:28" ht="77.25" x14ac:dyDescent="0.25">
       <c r="B377" s="115">
         <v>122</v>
       </c>
@@ -57741,7 +57735,7 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="378" spans="2:28" ht="217.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:28" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C378" s="1">
         <v>413</v>
       </c>
@@ -57803,7 +57797,7 @@
         <v>2617</v>
       </c>
     </row>
-    <row r="379" spans="2:28" ht="89.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:28" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B379" s="115">
         <v>163</v>
       </c>
@@ -57880,7 +57874,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="380" spans="2:28" s="94" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:28" s="94" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B380" s="114"/>
       <c r="C380" s="114">
         <v>329</v>
@@ -57953,7 +57947,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="381" spans="2:28" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:28" ht="102.75" x14ac:dyDescent="0.25">
       <c r="B381" s="54">
         <v>111</v>
       </c>
@@ -58002,7 +57996,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="382" spans="2:28" s="94" customFormat="1" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:28" s="94" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B382" s="54">
         <v>94</v>
       </c>
@@ -58065,7 +58059,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="383" spans="2:28" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:28" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B383" s="144" t="s">
         <v>1097</v>
       </c>
@@ -58110,7 +58104,7 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="384" spans="2:28" ht="114.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:28" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B384" s="115">
         <v>182</v>
       </c>
@@ -58183,7 +58177,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="385" spans="2:28" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:28" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B385" s="93" t="s">
         <v>1097</v>
       </c>
@@ -58234,7 +58228,7 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="386" spans="2:28" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:28" ht="128.25" x14ac:dyDescent="0.25">
       <c r="B386" s="114"/>
       <c r="C386" s="114">
         <v>348</v>
@@ -58305,7 +58299,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="387" spans="2:28" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:28" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B387" s="144" t="s">
         <v>1097</v>
       </c>
@@ -58352,7 +58346,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="388" spans="2:28" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:28" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B388" s="54">
         <v>103</v>
       </c>
@@ -58404,7 +58398,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="389" spans="2:28" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:28" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B389" s="144" t="s">
         <v>1097</v>
       </c>
@@ -58451,7 +58445,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="390" spans="2:28" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:28" ht="51.75" x14ac:dyDescent="0.25">
       <c r="B390" s="115">
         <v>67</v>
       </c>
@@ -58510,7 +58504,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="391" spans="2:28" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:28" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B391" s="93" t="s">
         <v>1097</v>
       </c>
@@ -58559,7 +58553,7 @@
         <v>2652</v>
       </c>
     </row>
-    <row r="392" spans="2:28" ht="64.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:28" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B392" s="54">
         <v>15</v>
       </c>
@@ -58609,7 +58603,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="393" spans="2:28" ht="153.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:28" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" s="54">
         <v>16</v>
       </c>
@@ -58659,7 +58653,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="394" spans="2:28" ht="153.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:28" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="54">
         <v>17</v>
       </c>
@@ -58709,7 +58703,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="395" spans="2:28" ht="166.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:28" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B395" s="54">
         <v>18</v>
       </c>
@@ -58759,7 +58753,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="396" spans="2:28" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:28" ht="77.25" x14ac:dyDescent="0.25">
       <c r="B396" s="54">
         <v>19</v>
       </c>
@@ -58809,7 +58803,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="397" spans="2:28" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:28" ht="102.75" x14ac:dyDescent="0.25">
       <c r="B397" s="54">
         <v>20</v>
       </c>
@@ -58859,7 +58853,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="398" spans="2:28" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:28" ht="64.5" x14ac:dyDescent="0.25">
       <c r="B398" s="54">
         <v>21</v>
       </c>
@@ -58909,7 +58903,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="399" spans="2:28" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:28" ht="114.75" x14ac:dyDescent="0.25">
       <c r="B399" s="115">
         <v>54</v>
       </c>
@@ -58969,7 +58963,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="400" spans="2:28" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:28" ht="115.5" x14ac:dyDescent="0.25">
       <c r="B400" s="115">
         <v>1</v>
       </c>
@@ -59033,7 +59027,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="401" spans="2:28" ht="153" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:28" ht="153" x14ac:dyDescent="0.25">
       <c r="B401" s="115">
         <v>28</v>
       </c>
@@ -59097,7 +59091,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="402" spans="2:28" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:28" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B402" s="54">
         <v>89</v>
       </c>
@@ -59146,7 +59140,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="403" spans="2:28" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B403" s="93" t="s">
         <v>1097</v>
       </c>
@@ -59197,7 +59191,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="404" spans="2:28" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:28" ht="51.75" x14ac:dyDescent="0.25">
       <c r="B404" s="54">
         <v>61</v>
       </c>
@@ -59243,7 +59237,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="405" spans="2:28" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:28" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B405" s="144" t="s">
         <v>1097</v>
       </c>
@@ -59292,7 +59286,7 @@
         <v>2649</v>
       </c>
     </row>
-    <row r="406" spans="2:28" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B406" s="54">
         <v>145</v>
       </c>
@@ -59369,7 +59363,7 @@
         <v>2639</v>
       </c>
     </row>
-    <row r="407" spans="2:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:28" ht="51" x14ac:dyDescent="0.2">
       <c r="B407" s="115">
         <v>59</v>
       </c>
@@ -59428,7 +59422,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="408" spans="2:28" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:28" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B408" s="93" t="s">
         <v>1097</v>
       </c>
@@ -59478,7 +59472,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="409" spans="2:28" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:28" ht="76.5" x14ac:dyDescent="0.2">
       <c r="C409" s="1">
         <v>369</v>
       </c>
@@ -59530,7 +59524,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="410" spans="2:28" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:28" ht="51.75" x14ac:dyDescent="0.25">
       <c r="B410" s="114"/>
       <c r="C410" s="114">
         <v>385</v>
@@ -59591,7 +59585,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="411" spans="2:28" ht="204" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:28" ht="204" x14ac:dyDescent="0.25">
       <c r="B411" s="468">
         <v>56</v>
       </c>
@@ -59655,7 +59649,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="412" spans="2:28" ht="115.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:28" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B412" s="54">
         <v>184</v>
       </c>
@@ -59728,7 +59722,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="413" spans="2:28" ht="114.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:28" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B413" s="144" t="s">
         <v>1097</v>
       </c>
@@ -59775,7 +59769,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="414" spans="2:28" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:28" ht="141" x14ac:dyDescent="0.25">
       <c r="B414" s="114"/>
       <c r="C414" s="114">
         <v>354</v>
@@ -59844,7 +59838,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="415" spans="2:28" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:28" ht="39" x14ac:dyDescent="0.25">
       <c r="B415" s="115">
         <v>161</v>
       </c>
@@ -59921,7 +59915,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="416" spans="2:28" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:28" ht="153" x14ac:dyDescent="0.2">
       <c r="B416" s="468">
         <v>25</v>
       </c>
@@ -59981,7 +59975,7 @@
       </c>
       <c r="AB416" s="471"/>
     </row>
-    <row r="417" spans="2:28" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:28" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B417" s="54">
         <v>46</v>
       </c>
@@ -60036,7 +60030,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="418" spans="2:28" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:28" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B418" s="115">
         <v>47</v>
       </c>
@@ -60098,7 +60092,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="419" spans="2:28" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:28" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B419" s="115">
         <v>48</v>
       </c>
@@ -60160,7 +60154,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="420" spans="2:28" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:28" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B420" s="54">
         <v>127</v>
       </c>
@@ -60235,7 +60229,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="421" spans="2:28" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:28" ht="128.25" x14ac:dyDescent="0.25">
       <c r="B421" s="54">
         <v>128</v>
       </c>
@@ -60300,7 +60294,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="422" spans="2:28" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:28" ht="115.5" x14ac:dyDescent="0.25">
       <c r="C422" s="1">
         <v>414</v>
       </c>
@@ -60359,7 +60353,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="423" spans="2:28" ht="140.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:28" ht="140.25" x14ac:dyDescent="0.25">
       <c r="B423" s="54">
         <v>50</v>
       </c>
@@ -60415,7 +60409,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="424" spans="2:28" ht="127.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:28" ht="127.5" x14ac:dyDescent="0.2">
       <c r="B424" s="115">
         <v>6</v>
       </c>
@@ -60475,7 +60469,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="425" spans="2:28" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:28" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B425" s="54">
         <v>7</v>
       </c>
@@ -60523,7 +60517,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="426" spans="2:28" ht="114.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:28" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B426" s="54">
         <v>8</v>
       </c>
@@ -60572,7 +60566,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="427" spans="2:28" ht="216.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:28" ht="216.75" x14ac:dyDescent="0.2">
       <c r="B427" s="54">
         <v>9</v>
       </c>
@@ -60623,7 +60617,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="428" spans="2:28" ht="178.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:28" ht="178.5" x14ac:dyDescent="0.25">
       <c r="B428" s="115">
         <v>43</v>
       </c>
@@ -60685,7 +60679,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="429" spans="2:28" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:28" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B429" s="54">
         <v>141</v>
       </c>
@@ -60758,7 +60752,7 @@
       </c>
       <c r="AB429" s="212"/>
     </row>
-    <row r="430" spans="2:28" ht="115.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:28" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C430" s="1">
         <v>415</v>
       </c>
@@ -60816,7 +60810,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="431" spans="2:28" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="2:28" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B431" s="115">
         <v>2</v>
       </c>
@@ -60876,7 +60870,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="432" spans="2:28" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="2:28" ht="102" x14ac:dyDescent="0.2">
       <c r="B432" s="115">
         <v>29</v>
       </c>
@@ -60936,7 +60930,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="433" spans="2:28" ht="127.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:28" ht="127.5" x14ac:dyDescent="0.25">
       <c r="B433" s="115">
         <v>30</v>
       </c>
@@ -60996,7 +60990,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="434" spans="2:28" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:28" ht="89.25" x14ac:dyDescent="0.25">
       <c r="B434" s="115">
         <v>31</v>
       </c>
@@ -61056,7 +61050,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="435" spans="2:28" ht="127.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:28" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B435" s="93" t="s">
         <v>1097</v>
       </c>
@@ -61103,7 +61097,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="436" spans="2:28" ht="140.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:28" ht="140.25" x14ac:dyDescent="0.2">
       <c r="B436" s="93" t="s">
         <v>1097</v>
       </c>
@@ -61152,7 +61146,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="437" spans="2:28" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:28" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B437" s="93" t="s">
         <v>1097</v>
       </c>
@@ -61203,7 +61197,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="438" spans="2:28" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:28" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B438" s="54">
         <v>146</v>
       </c>
@@ -61243,7 +61237,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="439" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B439" s="115"/>
       <c r="C439" s="1">
         <v>104</v>
